--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_PAAD_Q61R.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_PAAD_Q61R.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>datasource</t>
   </si>
@@ -47,22 +47,262 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Panther_2016</t>
   </si>
   <si>
+    <t>BioCarta_2016</t>
+  </si>
+  <si>
+    <t>PPI_Hub_Proteins</t>
+  </si>
+  <si>
+    <t>KEGG_2019_Human</t>
+  </si>
+  <si>
+    <t>WikiPathways_2019_Human</t>
+  </si>
+  <si>
+    <t>Transcription_Factor_PPIs</t>
+  </si>
+  <si>
     <t>Wnt signaling pathway_Homo sapiens_P00057</t>
   </si>
   <si>
+    <t>Cell Cycle: G1/S Check Point _Homo sapiens_h_g1Pathway</t>
+  </si>
+  <si>
+    <t>MAPK8</t>
+  </si>
+  <si>
+    <t>CTCF: First Multivalent Nuclear Factor_Homo sapiens_h_ctcfPathway</t>
+  </si>
+  <si>
+    <t>Hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>Human T-cell leukemia virus 1 infection</t>
+  </si>
+  <si>
+    <t>Chronic myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Tumor suppressor activity of SMARCB1 WP4204</t>
+  </si>
+  <si>
+    <t>Pancreatic cancer</t>
+  </si>
+  <si>
+    <t>Photodynamic therapy-induced AP-1 survival signaling. WP3611</t>
+  </si>
+  <si>
+    <t>Pancreatic adenocarcinoma pathway WP4263</t>
+  </si>
+  <si>
+    <t>DNA Damage Response (only ATM dependent) WP710</t>
+  </si>
+  <si>
+    <t>Apoptosis WP254</t>
+  </si>
+  <si>
+    <t>Cell Cycle WP179</t>
+  </si>
+  <si>
+    <t>Senescence and Autophagy in Cancer WP615</t>
+  </si>
+  <si>
+    <t>Ectoderm Differentiation WP2858</t>
+  </si>
+  <si>
+    <t>TGF-beta Signaling Pathway WP366</t>
+  </si>
+  <si>
+    <t>Cell cycle</t>
+  </si>
+  <si>
+    <t>Integrated Breast Cancer Pathway WP1984</t>
+  </si>
+  <si>
+    <t>Epithelial to mesenchymal transition in colorectal cancer WP4239</t>
+  </si>
+  <si>
+    <t>CTCF</t>
+  </si>
+  <si>
+    <t>Signaling Pathways in Glioblastoma WP2261</t>
+  </si>
+  <si>
     <t>Cadherin signaling pathway_Homo sapiens_P00012</t>
   </si>
   <si>
-    <t>3/278</t>
+    <t>Hepatitis B</t>
+  </si>
+  <si>
+    <t>4/278</t>
+  </si>
+  <si>
+    <t>2/26</t>
+  </si>
+  <si>
+    <t>4/352</t>
+  </si>
+  <si>
+    <t>2/23</t>
+  </si>
+  <si>
+    <t>3/168</t>
+  </si>
+  <si>
+    <t>3/219</t>
+  </si>
+  <si>
+    <t>2/76</t>
+  </si>
+  <si>
+    <t>2/31</t>
+  </si>
+  <si>
+    <t>2/75</t>
+  </si>
+  <si>
+    <t>2/50</t>
+  </si>
+  <si>
+    <t>2/89</t>
+  </si>
+  <si>
+    <t>2/110</t>
+  </si>
+  <si>
+    <t>2/84</t>
+  </si>
+  <si>
+    <t>2/120</t>
+  </si>
+  <si>
+    <t>2/105</t>
+  </si>
+  <si>
+    <t>2/138</t>
+  </si>
+  <si>
+    <t>2/132</t>
+  </si>
+  <si>
+    <t>2/124</t>
+  </si>
+  <si>
+    <t>2/151</t>
+  </si>
+  <si>
+    <t>2/159</t>
+  </si>
+  <si>
+    <t>2/60</t>
+  </si>
+  <si>
+    <t>2/82</t>
   </si>
   <si>
     <t>2/150</t>
   </si>
   <si>
-    <t>SMAD4;FAT3;CDH8</t>
+    <t>2/163</t>
+  </si>
+  <si>
+    <t>SMAD4;FAT3;ARID1A;CDH8</t>
+  </si>
+  <si>
+    <t>SMAD4;CDKN2A</t>
+  </si>
+  <si>
+    <t>MAP2K4;SMAD4;CDKN2A;ARID1A</t>
+  </si>
+  <si>
+    <t>SMAD4;CDKN2A;ARID1A</t>
+  </si>
+  <si>
+    <t>MAP2K4;SMAD4;CDKN2A</t>
+  </si>
+  <si>
+    <t>CDKN2A;ARID1A</t>
+  </si>
+  <si>
+    <t>MAP2K4;CDKN2A</t>
+  </si>
+  <si>
+    <t>SMAD4;CDH8</t>
+  </si>
+  <si>
+    <t>MAP2K4;SMAD4</t>
+  </si>
+  <si>
+    <t>SMAD4;MYCBP2</t>
   </si>
   <si>
     <t>FAT3;CDH8</t>
@@ -151,31 +391,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0974994935467586E-4</v>
+        <v>1.1163389573022585E-5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.023491994327723698</v>
+        <v>0.0012502996321785294</v>
       </c>
       <c r="G2" t="n">
-        <v>23.980815347721826</v>
+        <v>26.160889470241987</v>
       </c>
       <c r="H2" t="n">
-        <v>203.10778067320496</v>
+        <v>298.30924583244024</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="J2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -183,30 +423,734 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.873438171949139E-5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01051502423375973</v>
+      </c>
+      <c r="G3" t="n">
+        <v>139.86013986013987</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1304.8759616392456</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.822873899533716E-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010868064513204807</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.661157024793386</v>
+      </c>
+      <c r="H4" t="n">
+        <v>216.42913193499587</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.9138361411835E-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.016385791654604895</v>
+      </c>
+      <c r="G5" t="n">
+        <v>158.10276679841897</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1514.5297744379634</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.141880680895334E-5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02815699249715763</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32.467532467532465</v>
+      </c>
+      <c r="H6" t="n">
+        <v>301.9499784706664</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.002595241484436E-4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.030839966718860315</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24.906600249066</v>
+      </c>
+      <c r="H7" t="n">
+        <v>212.10202769255793</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.0019432269245114177</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.10882070777263939</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29.629629629629633</v>
-      </c>
-      <c r="H3" t="n">
-        <v>184.98978739594162</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.66557415655506E-4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.059024921005473956</v>
+      </c>
+      <c r="G8" t="n">
+        <v>47.846889952153106</v>
+      </c>
+      <c r="H8" t="n">
+        <v>343.2344955114031</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.2676847134630674E-4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05983471847545678</v>
+      </c>
+      <c r="G9" t="n">
+        <v>117.30205278592375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1052.5687032924095</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="n">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.466087214173855E-4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07665182873218492</v>
+      </c>
+      <c r="G10" t="n">
+        <v>48.484848484848484</v>
+      </c>
+      <c r="H10" t="n">
+        <v>349.0894210928152</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.32063883264561E-4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07836707645043639</v>
+      </c>
+      <c r="G11" t="n">
+        <v>72.72727272727272</v>
+      </c>
+      <c r="H11" t="n">
+        <v>582.5587773153795</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001049178217319043</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09904242371491766</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40.85801838610827</v>
+      </c>
+      <c r="H12" t="n">
+        <v>280.2757128259688</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00159610050932021</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.107622777199877</v>
+      </c>
+      <c r="G13" t="n">
+        <v>33.05785123966942</v>
+      </c>
+      <c r="H13" t="n">
+        <v>212.89890268340056</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.353738713083483E-4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1103741168143851</v>
+      </c>
+      <c r="G14" t="n">
+        <v>43.290043290043286</v>
+      </c>
+      <c r="H14" t="n">
+        <v>301.9291881488037</v>
+      </c>
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0018952501590271003</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.11181975938259892</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30.3030303030303</v>
+      </c>
+      <c r="H15" t="n">
+        <v>189.95164967029152</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0014558446451528107</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.11452644541868778</v>
+      </c>
+      <c r="G16" t="n">
+        <v>34.63203463203463</v>
+      </c>
+      <c r="H16" t="n">
+        <v>226.22230423058534</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002495703599748119</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.11779720990811123</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26.350461133069828</v>
+      </c>
+      <c r="H17" t="n">
+        <v>157.92317748688328</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002286758225307723</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.11992776470502725</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27.548209366391184</v>
+      </c>
+      <c r="H18" t="n">
+        <v>167.51019522016543</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0020218271883785093</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.12454455480411616</v>
+      </c>
+      <c r="G19" t="n">
+        <v>29.325513196480937</v>
+      </c>
+      <c r="H19" t="n">
+        <v>181.92825887754935</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.002978296357627942</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1277959891636717</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24.08187838651415</v>
+      </c>
+      <c r="H20" t="n">
+        <v>140.06992977758472</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.003295426703038</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.12962011698616133</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22.870211549456833</v>
+      </c>
+      <c r="H21" t="n">
+        <v>130.70828174382643</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.7836212312948043E-4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1372899293381609</v>
+      </c>
+      <c r="G22" t="n">
+        <v>60.6060606060606</v>
+      </c>
+      <c r="H22" t="n">
+        <v>463.3419716680445</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.916352467573733E-4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.14028394548982673</v>
+      </c>
+      <c r="G23" t="n">
+        <v>44.34589800443459</v>
+      </c>
+      <c r="H23" t="n">
+        <v>311.4170033350144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002939730465739655</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.16462490608142066</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24.242424242424242</v>
+      </c>
+      <c r="H24" t="n">
+        <v>141.31969406434197</v>
+      </c>
+      <c r="I24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0034597039044708977</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.17759813376283942</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22.308979364194087</v>
+      </c>
+      <c r="H25" t="n">
+        <v>126.41544384421455</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" t="n">
         <v>2.0</v>
       </c>
     </row>
